--- a/data/candidatos.xlsx
+++ b/data/candidatos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Braian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lautaro Roca Vilte\tp-inicial-lcs-ml-rrhh\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C4EFEF-7F80-44F1-9836-6700655B8675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16590" windowHeight="6060"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,15 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -323,8 +315,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +326,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -360,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,6 +369,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,23 +683,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" style="1" customWidth="1"/>
     <col min="7" max="8" width="20.7109375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -724,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -750,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>14</v>
       </c>
@@ -773,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -799,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -825,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25</v>
       </c>
@@ -851,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -877,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -903,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>39</v>
       </c>
@@ -926,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -949,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -972,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>47</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1072,8 +1075,9 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1971,8 +1975,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H51">
-    <sortState ref="A3:H48">
+  <autoFilter ref="A1:H51" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H48">
       <sortCondition descending="1" ref="G1:G51"/>
     </sortState>
   </autoFilter>
